--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -133,6 +133,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,8 +543,50 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="6">
+        <v>0.39103300000000002</v>
+      </c>
       <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -516,7 +516,9 @@
       <c r="I3" s="2">
         <v>0.39133699999999999</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>0.3954144</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>logloss-2</t>
+  </si>
+  <si>
+    <t>2^28</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -548,7 +551,9 @@
       <c r="I4" s="6">
         <v>0.39103300000000002</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>0.39494679999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -573,22 +578,158 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.39029599999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.39536060000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.39028299999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.39530159999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.9</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +96,26 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +128,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,31 +149,230 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -443,295 +672,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>0.1</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>0.39133699999999999</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
+        <f>$I$11-I3</f>
+        <v>-5.130000000000412E-4</v>
+      </c>
+      <c r="K3" s="3">
         <v>0.3954144</v>
       </c>
+      <c r="L3" s="12">
+        <f>$K$11-K3</f>
+        <v>-1.5854999999997954E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>0.1</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.39103300000000002</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J10" si="0">$I$11-I4</f>
+        <v>-2.0900000000007024E-4</v>
+      </c>
+      <c r="K4" s="3">
         <v>0.39494679999999999</v>
       </c>
+      <c r="L4" s="12">
+        <f t="shared" ref="L4:L10" si="1">$K$11-K4</f>
+        <v>3.0905000000003291E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>0.15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.39029599999999998</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2799999999997294E-4</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.39536060000000001</v>
       </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.047499999999868E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>0.15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.39028299999999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4099999999995818E-4</v>
+      </c>
+      <c r="K6" s="3">
         <v>0.39530159999999998</v>
       </c>
+      <c r="L6" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.5749999999955548E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>0.1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="5">
+        <v>0.39117099999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.4700000000004172E-4</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>0.1</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.9</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
         <v>100</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="17"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>100</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="18">
+        <f>AVERAGE(I3:I10)</f>
+        <v>0.39082399999999995</v>
+      </c>
+      <c r="K11" s="19">
+        <f>AVERAGE(K3:K10)</f>
+        <v>0.39525585000000002</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J10">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -59,13 +59,19 @@
   </si>
   <si>
     <t>2^28</t>
+  </si>
+  <si>
+    <t>ture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +120,24 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +162,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -288,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,52 +332,102 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -672,19 +756,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -694,41 +778,41 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>0.1</v>
       </c>
       <c r="B3" s="3">
@@ -752,23 +836,23 @@
       <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="19">
         <v>0.39133699999999999</v>
       </c>
-      <c r="J3" s="3">
-        <f>$I$11-I3</f>
-        <v>-5.130000000000412E-4</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="19">
+        <f>$I$13-I3</f>
+        <v>-4.2950000000002708E-4</v>
+      </c>
+      <c r="K3" s="19">
         <v>0.3954144</v>
       </c>
-      <c r="L3" s="12">
-        <f>$K$11-K3</f>
-        <v>-1.5854999999997954E-4</v>
+      <c r="L3" s="20">
+        <f>$K$13-K3</f>
+        <v>-3.3967499999998374E-4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>0.1</v>
       </c>
       <c r="B4" s="3">
@@ -780,7 +864,7 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -792,32 +876,32 @@
       <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="21">
         <v>0.39103300000000002</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J10" si="0">$I$11-I4</f>
-        <v>-2.0900000000007024E-4</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="19">
+        <f>$I$13-I4</f>
+        <v>-1.2550000000005612E-4</v>
+      </c>
+      <c r="K4" s="19">
         <v>0.39494679999999999</v>
       </c>
-      <c r="L4" s="12">
-        <f t="shared" ref="L4:L10" si="1">$K$11-K4</f>
-        <v>3.0905000000003291E-4</v>
+      <c r="L4" s="20">
+        <f t="shared" ref="L4:L10" si="0">$K$13-K4</f>
+        <v>1.2792500000002871E-4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="16">
         <v>0.15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="17">
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -832,23 +916,23 @@
       <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="21">
         <v>0.39029599999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="19">
+        <f>$I$13-I5</f>
+        <v>6.1149999999998705E-4</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.39536060000000001</v>
+      </c>
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
-        <v>5.2799999999997294E-4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.39536060000000001</v>
-      </c>
-      <c r="L5" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.047499999999868E-4</v>
+        <v>-2.85874999999991E-4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>0.15</v>
       </c>
       <c r="B6" s="3">
@@ -860,7 +944,7 @@
       <c r="D6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -872,35 +956,35 @@
       <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="21">
         <v>0.39028299999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="19">
+        <f>$I$13-I6</f>
+        <v>6.244999999999723E-4</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.39530159999999998</v>
+      </c>
+      <c r="L6" s="20">
         <f t="shared" si="0"/>
-        <v>5.4099999999995818E-4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.39530159999999998</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.5749999999955548E-5</v>
+        <v>-2.2687499999995975E-4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="29">
         <v>0.1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -912,21 +996,26 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="21">
         <v>0.39117099999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="19">
+        <f>$I$13-I7</f>
+        <v>-2.635000000000276E-4</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.39486979999999999</v>
+      </c>
+      <c r="L7" s="20">
         <f t="shared" si="0"/>
-        <v>-3.4700000000004172E-4</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="12"/>
+        <v>2.0492500000002245E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>0.1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -947,22 +1036,32 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="12"/>
+      <c r="I8" s="21">
+        <v>0.3911</v>
+      </c>
+      <c r="J8" s="19">
+        <f>$I$13-I8</f>
+        <v>-1.9250000000003986E-4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.39489210000000002</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.8262499999999182E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>0.1</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="17">
         <v>0.9</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -977,63 +1076,157 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="12"/>
+      <c r="I9" s="21">
+        <v>0.39108500000000002</v>
+      </c>
+      <c r="J9" s="19">
+        <f>$I$13-I9</f>
+        <v>-1.7750000000005262E-4</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.39489659999999999</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.7812500000002895E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="17"/>
+      <c r="I10" s="21">
+        <v>0.390955</v>
+      </c>
+      <c r="J10" s="19">
+        <f>$I$13-I10</f>
+        <v>-4.7500000000033626E-5</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.39491589999999999</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5882500000002908E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="18">
-        <f>AVERAGE(I3:I10)</f>
-        <v>0.39082399999999995</v>
-      </c>
-      <c r="K11" s="19">
-        <f>AVERAGE(K3:K10)</f>
-        <v>0.39525585000000002</v>
-      </c>
+      <c r="A11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32">
+        <v>100</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="25">
+        <f>AVERAGE(I3:I12)</f>
+        <v>0.39090749999999996</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27">
+        <f>AVERAGE(K3:K12)</f>
+        <v>0.39507472500000002</v>
+      </c>
+      <c r="L13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J10">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="J3:J12 L10:L11">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="L3:L9 L12">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="26480" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -62,6 +67,15 @@
   </si>
   <si>
     <t>ture</t>
+  </si>
+  <si>
+    <t>Vowpal Wabbit - Online Learning</t>
+  </si>
+  <si>
+    <t>Commend</t>
+  </si>
+  <si>
+    <t>vw -d train.vw --loss_function logistic -b 28 -l 0.1 -q :: -c -k --passes 10 -f model_holdout.vw --holdout_period 100</t>
   </si>
 </sst>
 </file>
@@ -71,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +150,22 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -175,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -185,144 +215,261 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,15 +494,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,11 +554,69 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -512,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,28 +952,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -802,16 +998,16 @@
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="7">
         <v>0.1</v>
       </c>
@@ -836,22 +1032,22 @@
       <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="16">
         <v>0.39133699999999999</v>
       </c>
-      <c r="J3" s="19">
-        <f>$I$13-I3</f>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J10" si="0">$I$13-I3</f>
         <v>-4.2950000000002708E-4</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="16">
         <v>0.3954144</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <f>$K$13-K3</f>
         <v>-3.3967499999998374E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="7">
         <v>0.1</v>
       </c>
@@ -864,7 +1060,7 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -876,32 +1072,32 @@
       <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>0.39103300000000002</v>
       </c>
-      <c r="J4" s="19">
-        <f>$I$13-I4</f>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
         <v>-1.2550000000005612E-4</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <v>0.39494679999999999</v>
       </c>
-      <c r="L4" s="20">
-        <f t="shared" ref="L4:L10" si="0">$K$13-K4</f>
+      <c r="L4" s="17">
+        <f t="shared" ref="L4:L10" si="1">$K$13-K4</f>
         <v>1.2792500000002871E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    <row r="5" spans="1:12">
+      <c r="A5" s="13">
         <v>0.15</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -916,22 +1112,22 @@
       <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>0.39029599999999998</v>
       </c>
-      <c r="J5" s="19">
-        <f>$I$13-I5</f>
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
         <v>6.1149999999998705E-4</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="16">
         <v>0.39536060000000001</v>
       </c>
-      <c r="L5" s="20">
-        <f t="shared" si="0"/>
+      <c r="L5" s="17">
+        <f t="shared" si="1"/>
         <v>-2.85874999999991E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="7">
         <v>0.15</v>
       </c>
@@ -944,7 +1140,7 @@
       <c r="D6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -956,35 +1152,35 @@
       <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>0.39028299999999999</v>
       </c>
-      <c r="J6" s="19">
-        <f>$I$13-I6</f>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
         <v>6.244999999999723E-4</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <v>0.39530159999999998</v>
       </c>
-      <c r="L6" s="20">
-        <f t="shared" si="0"/>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
         <v>-2.2687499999995975E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+    <row r="7" spans="1:12">
+      <c r="A7" s="26">
         <v>0.1</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -996,26 +1192,26 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>0.39117099999999999</v>
       </c>
-      <c r="J7" s="19">
-        <f>$I$13-I7</f>
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
         <v>-2.635000000000276E-4</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <v>0.39486979999999999</v>
       </c>
-      <c r="L7" s="20">
-        <f t="shared" si="0"/>
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
         <v>2.0492500000002245E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="7">
         <v>0.1</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -1036,22 +1232,22 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>0.3911</v>
       </c>
-      <c r="J8" s="19">
-        <f>$I$13-I8</f>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
         <v>-1.9250000000003986E-4</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <v>0.39489210000000002</v>
       </c>
-      <c r="L8" s="20">
-        <f t="shared" si="0"/>
+      <c r="L8" s="17">
+        <f t="shared" si="1"/>
         <v>1.8262499999999182E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="7">
         <v>0.1</v>
       </c>
@@ -1061,7 +1257,7 @@
       <c r="C9" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>0.9</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1076,29 +1272,29 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>0.39108500000000002</v>
       </c>
-      <c r="J9" s="19">
-        <f>$I$13-I9</f>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
         <v>-1.7750000000005262E-4</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <v>0.39489659999999999</v>
       </c>
-      <c r="L9" s="20">
-        <f t="shared" si="0"/>
+      <c r="L9" s="17">
+        <f t="shared" si="1"/>
         <v>1.7812500000002895E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="7">
         <v>0.1</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>0.9</v>
       </c>
       <c r="D10" s="3">
@@ -1116,22 +1312,22 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="18">
         <v>0.390955</v>
       </c>
-      <c r="J10" s="19">
-        <f>$I$13-I10</f>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
         <v>-4.7500000000033626E-5</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <v>0.39491589999999999</v>
       </c>
-      <c r="L10" s="20">
-        <f t="shared" si="0"/>
+      <c r="L10" s="17">
+        <f t="shared" si="1"/>
         <v>1.5882500000002908E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="7">
         <v>0.1</v>
       </c>
@@ -1147,22 +1343,22 @@
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="29">
         <v>100</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="I11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="14" thickBot="1">
+      <c r="A12" s="15">
         <v>0.05</v>
       </c>
       <c r="B12" s="8">
@@ -1186,50 +1382,260 @@
       <c r="H12" s="8">
         <v>100</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10">
         <v>0.1</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="25">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="22">
         <f>AVERAGE(I3:I12)</f>
         <v>0.39090749999999996</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27">
+      <c r="J13" s="23"/>
+      <c r="K13" s="24">
         <f>AVERAGE(K3:K12)</f>
         <v>0.39507472500000002</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="15" spans="1:12" ht="14" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" ht="14" thickBot="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="15">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12 L10:L11">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L9 L12">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J26 L24:L25">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L23 L26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="26480" windowHeight="13480"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="26475" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -75,7 +75,7 @@
     <t>Commend</t>
   </si>
   <si>
-    <t>vw -d train.vw --loss_function logistic -b 28 -l 0.1 -q :: -c -k --passes 10 -f model_holdout.vw --holdout_period 100</t>
+    <t>vw -d train.vw --loss_function logistic -b 29 -l 0.05 -q :: -c -k --passes 5 -f model_holdout.vw --holdout_period 50</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,24 +554,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -598,6 +580,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -609,21 +627,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -955,25 +959,25 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -998,16 +1002,16 @@
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>0.1</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>-3.3967499999998374E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>0.1</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>1.2792500000002871E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>0.15</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>-2.85874999999991E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>0.15</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>-2.2687499999995975E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>0.1</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>2.0492500000002245E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>0.1</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>1.8262499999999182E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>0.1</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>1.7812500000002895E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>0.1</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>1.5882500000002908E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>0.1</v>
       </c>
@@ -1357,7 +1361,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="14" thickBot="1">
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>0.05</v>
       </c>
@@ -1387,7 +1391,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>0.1</v>
       </c>
@@ -1411,174 +1415,176 @@
       </c>
       <c r="L13" s="23"/>
     </row>
-    <row r="15" spans="1:12" ht="14" thickBot="1">
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14" customHeight="1">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31" t="s">
+      <c r="J16" s="39"/>
+      <c r="K16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" ht="14" thickBot="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="45">
+        <v>0.37432599999999999</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1594,39 +1600,39 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12 L10:L11">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L9 L12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J26 L24:L25">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L23 L26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>vw -d train.vw --loss_function logistic -b 29 -l 0.05 -q :: -c -k --passes 5 -f model_holdout.vw --holdout_period 50</t>
+  </si>
+  <si>
+    <t>Ensemble Models</t>
   </si>
 </sst>
 </file>
@@ -554,6 +557,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -598,24 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -627,7 +630,63 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -712,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -972,12 +1031,12 @@
     <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1002,16 +1061,16 @@
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>0.1</v>
       </c>
@@ -1051,7 +1110,7 @@
         <v>-3.3967499999998374E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>0.1</v>
       </c>
@@ -1091,7 +1150,7 @@
         <v>1.2792500000002871E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>0.15</v>
       </c>
@@ -1131,7 +1190,7 @@
         <v>-2.85874999999991E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>0.15</v>
       </c>
@@ -1171,7 +1230,7 @@
         <v>-2.2687499999995975E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>0.1</v>
       </c>
@@ -1210,8 +1269,11 @@
         <f t="shared" si="1"/>
         <v>2.0492500000002245E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>0.1</v>
       </c>
@@ -1251,7 +1313,7 @@
         <v>1.8262499999999182E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>0.1</v>
       </c>
@@ -1291,7 +1353,7 @@
         <v>1.7812500000002895E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>0.1</v>
       </c>
@@ -1331,7 +1393,7 @@
         <v>1.5882500000002908E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>0.1</v>
       </c>
@@ -1361,7 +1423,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>0.05</v>
       </c>
@@ -1391,7 +1453,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>0.1</v>
       </c>
@@ -1415,176 +1477,187 @@
       </c>
       <c r="L13" s="23"/>
     </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="39" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="45">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="30">
         <v>0.37432599999999999</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J17" s="30">
+        <f>$I$27-I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0.40478320000000001</v>
+      </c>
+      <c r="L17" s="31">
+        <f>$K$27-K17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1593,13 +1666,225 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="22">
+        <f>AVERAGE(I17:I26)</f>
+        <v>0.37432599999999999</v>
+      </c>
       <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="24">
+        <f>AVERAGE(K17:K26)</f>
+        <v>0.40478320000000001</v>
+      </c>
       <c r="L27" s="23"/>
     </row>
+    <row r="29" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
+        <v>1</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30" t="e">
+        <f>$I$41-I31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31" t="e">
+        <f>$K$41-K31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="22" t="e">
+        <f>AVERAGE(I31:I40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24" t="e">
+        <f>AVERAGE(K31:K40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="28">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="I16:J16"/>
@@ -1617,22 +1902,42 @@
     <mergeCell ref="A26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12 L10:L11">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L9 L12">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J26 L24:L25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L23 L26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="L18:L23 L26">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J40 L38:L39">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L37 L40">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\VAZU-CTR-Prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,24 +341,6 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +438,24 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +610,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,22 +832,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="8" width="8.85546875" style="7"/>
-    <col min="9" max="9" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="7"/>
-    <col min="11" max="11" width="8.28515625" style="7"/>
-    <col min="12" max="12" width="8" style="7"/>
-    <col min="13" max="1025" width="8.85546875" style="7"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
@@ -863,466 +860,471 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="39"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
         <v>0.1</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
         <v>100</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>0.39133699999999999</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="8">
         <f t="shared" ref="J3:J11" si="0">$I$13-I3</f>
         <v>-4.0777777777778468E-4</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="8">
         <v>0.3954144</v>
       </c>
-      <c r="L3" s="15">
-        <f t="shared" ref="L3:L10" si="1">$K$13-K3</f>
-        <v>-3.3967499999998374E-4</v>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L11" si="1">$K$13-K3</f>
+        <v>-3.5933333333332262E-4</v>
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
         <v>0.1</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
         <v>100</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <v>0.39103300000000002</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>-1.0377777777781372E-4</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="8">
         <v>0.39494679999999999</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="9">
         <f t="shared" si="1"/>
-        <v>1.2792500000002871E-4</v>
+        <v>1.0826666666668983E-4</v>
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:13">
+      <c r="A5" s="12">
         <v>0.15</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <v>0.39029599999999998</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>6.3322222222222946E-4</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="8">
         <v>0.39536060000000001</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="9">
         <f t="shared" si="1"/>
-        <v>-2.85874999999991E-4</v>
+        <v>-3.0553333333332988E-4</v>
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:13">
+      <c r="A6" s="5">
         <v>0.15</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
         <v>100</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <v>0.39028299999999999</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>6.462222222222147E-4</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="8">
         <v>0.39530159999999998</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>-2.2687499999995975E-4</v>
+        <v>-2.4653333333329863E-4</v>
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:13">
+      <c r="A7" s="14">
         <v>0.1</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>100</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <v>0.39117099999999999</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>-2.417777777777852E-4</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="8">
         <v>0.39486979999999999</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>2.0492500000002245E-4</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+        <v>1.8526666666668357E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5">
         <v>0.1</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>100</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <v>0.3911</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
         <v>-1.7077777777779746E-4</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="8">
         <v>0.39489210000000002</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="9">
         <f t="shared" si="1"/>
-        <v>1.8262499999999182E-4</v>
+        <v>1.6296666666665294E-4</v>
       </c>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
         <v>0.1</v>
       </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="13">
         <v>0.9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>100</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <v>0.39108500000000002</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="8">
         <f t="shared" si="0"/>
         <v>-1.5577777777781021E-4</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <v>0.39489659999999999</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="9">
         <f t="shared" si="1"/>
-        <v>1.7812500000002895E-4</v>
+        <v>1.5846666666669007E-4</v>
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:13">
+      <c r="A10" s="5">
         <v>0.1</v>
       </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
         <v>0.9</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
         <v>100</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <v>0.390955</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="8">
         <f t="shared" si="0"/>
         <v>-2.5777777777791222E-5</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="8">
         <v>0.39491589999999999</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="9">
         <f t="shared" si="1"/>
-        <v>1.5882500000002908E-4</v>
+        <v>1.391666666666902E-4</v>
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
         <v>0.1</v>
       </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
         <v>100</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <v>0.39110299999999998</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="8">
         <f t="shared" si="0"/>
         <v>-1.737777777777727E-4</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="8">
+        <v>0.39489780000000002</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5726666666665556E-4</v>
+      </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+    <row r="12" spans="1:13">
+      <c r="A12" s="19">
         <v>0.05</v>
       </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+    <row r="13" spans="1:13">
+      <c r="A13" s="25">
         <v>0.1</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26">
         <f>AVERAGE(I3:I12)</f>
         <v>0.39092922222222221</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34">
+      <c r="J13" s="27"/>
+      <c r="K13" s="28">
         <f>AVERAGE(K3:K12)</f>
-        <v>0.39507472500000002</v>
-      </c>
-      <c r="L13" s="33"/>
+        <v>0.39505506666666668</v>
+      </c>
+      <c r="L13" s="27"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1337,8 +1339,8 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15"/>
@@ -1354,203 +1356,203 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" ht="14" customHeight="1">
+      <c r="A16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="39"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="30" customHeight="1">
+      <c r="A17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="35">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="29">
         <v>0.37432599999999999</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="29">
         <f>$I$27-I17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="29">
         <v>0.40478320000000001</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="30">
         <f>$K$27-K17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26">
         <f>AVERAGE(I17:I26)</f>
         <v>0.37432599999999999</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34">
+      <c r="J27" s="27"/>
+      <c r="K27" s="28">
         <f>AVERAGE(K17:K26)</f>
         <v>0.40478320000000001</v>
       </c>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1564,8 +1566,8 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B29"/>
@@ -1580,196 +1582,216 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5" t="s">
+      <c r="J30" s="38"/>
+      <c r="K30" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35" t="e">
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="40">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29" t="e">
         <f>$I$41-I31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36" t="e">
+      <c r="K31" s="29"/>
+      <c r="L31" s="30" t="e">
         <f>$K$41-K31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="40"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32" t="e">
+    <row r="32" spans="1:13">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26" t="e">
         <f>AVERAGE(I31:I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="34" t="e">
+      <c r="J41" s="27"/>
+      <c r="K41" s="28" t="e">
         <f>AVERAGE(K31:K40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="33"/>
+      <c r="L41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:H40"/>
@@ -1778,26 +1800,6 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="L17">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
@@ -1811,5 +1813,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="14060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>hash</t>
+  </si>
+  <si>
+    <t>vw -d train_df.vw --loss_function logistic -b 29 -l 0.1 -c -k --passes 3 -f model_naive.vw --holdout_period 100</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,6 +156,22 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -336,8 +355,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -439,26 +460,28 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -822,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,7 +856,7 @@
   <dimension ref="A1:AMK41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -885,14 +908,14 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="36"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13">
@@ -1367,33 +1390,33 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="36"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="29">
         <v>0.37432599999999999</v>
       </c>
       <c r="J17" s="29">
         <f>$I$27-I17</f>
-        <v>0</v>
+        <v>8.0254999999999632E-3</v>
       </c>
       <c r="K17" s="29">
         <v>0.40478320000000001</v>
@@ -1406,127 +1429,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="31"/>
+    <row r="18" spans="1:13" ht="29" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="31">
+        <v>0.39037699999999997</v>
+      </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="31"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="31"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="31"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="31"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="31"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="31"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="31"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
@@ -1543,7 +1570,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="26">
         <f>AVERAGE(I17:I26)</f>
-        <v>0.37432599999999999</v>
+        <v>0.38235149999999996</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="28">
@@ -1593,26 +1620,26 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39" t="s">
+      <c r="J30" s="35"/>
+      <c r="K30" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="39"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="40">
-        <v>1</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="38">
+        <v>1</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29" t="e">
         <f>$I$41-I31</f>
@@ -1625,126 +1652,126 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="32"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -1772,26 +1799,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:H40"/>
@@ -1800,6 +1807,26 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="L17">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
@@ -1812,7 +1839,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -460,23 +460,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -484,7 +484,19 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -845,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,7 +868,7 @@
   <dimension ref="A1:AMK41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -908,14 +920,14 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="39"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13">
@@ -1390,27 +1402,27 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="39"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="29">
         <v>0.37432599999999999</v>
       </c>
@@ -1423,137 +1435,145 @@
       </c>
       <c r="L17" s="30">
         <f>$K$27-K17</f>
-        <v>0</v>
+        <v>-4.7273999999999927E-3</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="29" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="31">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="J18" s="29">
+        <f>$I$27-I18</f>
+        <v>-8.0255000000000187E-3</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0.39532840000000002</v>
+      </c>
+      <c r="L18" s="30">
+        <f>$K$27-K18</f>
+        <v>4.7273999999999927E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="31"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="31"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="31"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="31"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="31"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="31"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="31"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
@@ -1575,7 +1595,7 @@
       <c r="J27" s="27"/>
       <c r="K27" s="28">
         <f>AVERAGE(K17:K26)</f>
-        <v>0.40478320000000001</v>
+        <v>0.40005580000000002</v>
       </c>
       <c r="L27" s="27"/>
     </row>
@@ -1620,26 +1640,26 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36" t="s">
+      <c r="J30" s="38"/>
+      <c r="K30" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="36"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="38">
-        <v>1</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="40">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29" t="e">
         <f>$I$41-I31</f>
@@ -1652,126 +1672,126 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="32"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -1799,6 +1819,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:H40"/>
@@ -1807,34 +1847,14 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="L17:L18">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\VAZU-CTR-Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -75,13 +80,28 @@
     <t>vw -d train.vw --loss_function logistic -b 29 -l 0.05 -q :: -c -k --passes 5 -f model_holdout.vw --holdout_period 50</t>
   </si>
   <si>
-    <t>Ensemble Models</t>
-  </si>
-  <si>
     <t>hash</t>
   </si>
   <si>
     <t>vw -d train_df.vw --loss_function logistic -b 29 -l 0.1 -c -k --passes 3 -f model_naive.vw --holdout_period 100</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>min_child_weight</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>num_round</t>
   </si>
 </sst>
 </file>
@@ -211,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -354,13 +374,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,23 +558,44 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -484,19 +603,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="11"/>
@@ -857,7 +964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -867,18 +974,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +1002,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -920,17 +1027,17 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="37"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.1</v>
       </c>
@@ -971,7 +1078,7 @@
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -1012,7 +1119,7 @@
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0.15</v>
       </c>
@@ -1053,7 +1160,7 @@
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.15</v>
       </c>
@@ -1094,7 +1201,7 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.1</v>
       </c>
@@ -1137,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -1178,7 +1285,7 @@
       </c>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.1</v>
       </c>
@@ -1219,7 +1326,7 @@
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.1</v>
       </c>
@@ -1260,7 +1367,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.1</v>
       </c>
@@ -1300,10 +1407,10 @@
         <v>1.5726666666665556E-4</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>0.05</v>
       </c>
@@ -1334,7 +1441,7 @@
       <c r="L12" s="24"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>0.1</v>
       </c>
@@ -1359,7 +1466,7 @@
       <c r="L13" s="27"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1374,7 +1481,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1391,38 +1498,38 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" ht="14" customHeight="1">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39" t="s">
+      <c r="J16" s="36"/>
+      <c r="K16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="37"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="29">
         <v>0.37432599999999999</v>
       </c>
@@ -1441,17 +1548,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="29" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+    <row r="18" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="31">
         <v>0.39037699999999997</v>
       </c>
@@ -1467,119 +1574,119 @@
         <v>4.7273999999999927E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="31"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="31"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="31"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="31"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="31"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="31"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="31"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -1599,7 +1706,7 @@
       </c>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1613,9 +1720,9 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1629,37 +1736,55 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39" t="s">
+      <c r="J30" s="36"/>
+      <c r="K30" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="40">
-        <v>1</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="44">
+        <v>1</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="44">
+        <v>3</v>
+      </c>
+      <c r="F31" s="45">
+        <v>2</v>
+      </c>
+      <c r="G31" s="44">
+        <v>2</v>
+      </c>
+      <c r="H31" s="45"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29" t="e">
         <f>$I$41-I31</f>
@@ -1671,133 +1796,133 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="45"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="32"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="34"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -1818,43 +1943,65 @@
       <c r="L41" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="50">
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <conditionalFormatting sqref="L17:L18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -579,22 +579,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,18 +1743,18 @@
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="42" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="42" t="s">
+      <c r="F30" s="47"/>
+      <c r="G30" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="36" t="s">
         <v>9</v>
       </c>
@@ -1771,40 +1771,52 @@
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="44">
-        <v>1</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44">
+      <c r="C31" s="42">
+        <v>1</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="42">
         <v>3</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="43">
         <v>2</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="42">
         <v>2</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29" t="e">
         <f>$I$41-I31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30" t="e">
+      <c r="K31" s="29">
+        <v>0.42483500000000002</v>
+      </c>
+      <c r="L31" s="30">
         <f>$K$41-K31</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="42">
+        <v>1</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="42">
+        <v>8</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="42">
+        <v>5</v>
+      </c>
+      <c r="H32" s="43"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -1813,12 +1825,12 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -1827,12 +1839,12 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -1841,12 +1853,12 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -1855,12 +1867,12 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -1869,12 +1881,12 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -1883,12 +1895,12 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="45"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -1897,12 +1909,12 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -1911,12 +1923,12 @@
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
       <c r="I40" s="32"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -1936,16 +1948,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="27"/>
-      <c r="K41" s="28" t="e">
+      <c r="K41" s="28">
         <f>AVERAGE(K31:K40)</f>
-        <v>#DIV/0!</v>
+        <v>0.42483500000000002</v>
       </c>
       <c r="L41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
@@ -1960,14 +1970,11 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -1979,6 +1986,11 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>num_round</t>
+  </si>
+  <si>
+    <t>ensemble models</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
+  </si>
+  <si>
+    <t>model4</t>
+  </si>
+  <si>
+    <t>model5</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
 </sst>
 </file>
@@ -561,10 +585,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,24 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -603,7 +627,43 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -972,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK41"/>
+  <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,14 +1087,14 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="42"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1499,37 +1559,37 @@
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="36" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="42"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="29">
         <v>0.37432599999999999</v>
       </c>
@@ -1549,16 +1609,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="31">
         <v>0.39037699999999997</v>
       </c>
@@ -1575,112 +1635,112 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="31"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="31"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="31"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="31"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="31"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="31"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="31"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
@@ -1743,26 +1803,26 @@
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="46" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="46" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="36" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37" t="s">
+      <c r="J30" s="43"/>
+      <c r="K30" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="37"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1771,31 +1831,28 @@
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="42">
-        <v>1</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="42">
+      <c r="C31" s="38">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38">
         <v>3</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="39">
         <v>2</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="38">
         <v>2</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="29" t="e">
-        <f>$I$41-I31</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J31" s="29"/>
       <c r="K31" s="29">
         <v>0.42483500000000002</v>
       </c>
       <c r="L31" s="30">
         <f>$K$41-K31</f>
-        <v>0</v>
+        <v>5.3988999999999843E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1805,32 +1862,34 @@
       <c r="B32" s="6">
         <v>0.8</v>
       </c>
-      <c r="C32" s="42">
-        <v>1</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="42">
+      <c r="C32" s="38">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38">
         <v>8</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="42">
+      <c r="F32" s="39"/>
+      <c r="G32" s="38">
         <v>5</v>
       </c>
-      <c r="H32" s="43"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
+      <c r="K32" s="29">
+        <v>0.43563279999999999</v>
+      </c>
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -1839,12 +1898,12 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -1853,12 +1912,12 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -1867,12 +1926,12 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -1881,12 +1940,12 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -1895,12 +1954,12 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -1909,12 +1968,12 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -1923,12 +1982,12 @@
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="32"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -1943,19 +2002,237 @@
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="26" t="e">
-        <f>AVERAGE(I31:I40)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I41" s="26"/>
       <c r="J41" s="27"/>
       <c r="K41" s="28">
         <f>AVERAGE(K31:K40)</f>
-        <v>0.42483500000000002</v>
+        <v>0.4302339</v>
       </c>
       <c r="L41" s="27"/>
     </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="41"/>
+      <c r="G44" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="41"/>
+      <c r="I44" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="41"/>
+      <c r="K44" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="42"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="29">
+        <v>0.40273130000000001</v>
+      </c>
+      <c r="L45" s="30">
+        <f>$K$55-K45</f>
+        <v>-3.2419499999999934E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="29">
+        <v>0.39624740000000003</v>
+      </c>
+      <c r="L46" s="30">
+        <f>$K$55-K46</f>
+        <v>3.2419499999999934E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28">
+        <f>AVERAGE(K45:K54)</f>
+        <v>0.39948935000000002</v>
+      </c>
+      <c r="L55" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="106">
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
@@ -1970,6 +2247,10 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
@@ -1977,7 +2258,6 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="C30:D30"/>
@@ -1987,33 +2267,96 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
   </mergeCells>
   <conditionalFormatting sqref="L17:L18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>python</t>
+  </si>
+  <si>
+    <t>vw -d train_df.vw --loss_function logistic -b 28 -l 0.1 -c -k --passes 3 -f model_naive.vw --holdout_period 100</t>
+  </si>
+  <si>
+    <t>without holiday</t>
   </si>
 </sst>
 </file>
@@ -591,22 +597,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,14 +1093,14 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42"/>
+      <c r="L2" s="43"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1569,14 +1575,14 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="43"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,7 +1608,7 @@
       </c>
       <c r="L17" s="30">
         <f>$K$27-K17</f>
-        <v>-4.7273999999999927E-3</v>
+        <v>-6.4019333333333317E-3</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -1631,22 +1637,32 @@
       </c>
       <c r="L18" s="30">
         <f>$K$27-K18</f>
-        <v>4.7273999999999927E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+        <v>3.0528666666666537E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="31"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="K19" s="29">
+        <v>0.3950322</v>
+      </c>
+      <c r="L19" s="30">
+        <f>$K$27-K19</f>
+        <v>3.349066666666678E-3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
@@ -1762,7 +1778,7 @@
       <c r="J27" s="27"/>
       <c r="K27" s="28">
         <f>AVERAGE(K17:K26)</f>
-        <v>0.40005580000000002</v>
+        <v>0.39838126666666668</v>
       </c>
       <c r="L27" s="27"/>
     </row>
@@ -1803,26 +1819,26 @@
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40" t="s">
+      <c r="F30" s="39"/>
+      <c r="G30" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="43" t="s">
+      <c r="H30" s="39"/>
+      <c r="I30" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="42" t="s">
+      <c r="J30" s="42"/>
+      <c r="K30" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="42"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1831,20 +1847,20 @@
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="38">
-        <v>1</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="38">
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40">
         <v>3</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="41">
         <v>2</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="40">
         <v>2</v>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29">
@@ -1862,18 +1878,18 @@
       <c r="B32" s="6">
         <v>0.8</v>
       </c>
-      <c r="C32" s="38">
-        <v>1</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="38">
+      <c r="C32" s="40">
+        <v>1</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="40">
         <v>8</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38">
+      <c r="F32" s="41"/>
+      <c r="G32" s="40">
         <v>5</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
@@ -1884,12 +1900,12 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -1898,12 +1914,12 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -1912,12 +1928,12 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -1926,12 +1942,12 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -1940,12 +1956,12 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -1954,12 +1970,12 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -1968,12 +1984,12 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -2027,50 +2043,50 @@
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="40" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="40" t="s">
+      <c r="F44" s="39"/>
+      <c r="G44" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="40" t="s">
+      <c r="H44" s="39"/>
+      <c r="I44" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="41"/>
-      <c r="K44" s="42" t="s">
+      <c r="J44" s="39"/>
+      <c r="K44" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="42"/>
+      <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="38" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="38" t="s">
+      <c r="D45" s="41"/>
+      <c r="E45" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="29">
         <v>0.40273130000000001</v>
       </c>
@@ -2080,20 +2096,20 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="38" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="29">
         <v>0.39624740000000003</v>
       </c>
@@ -2103,100 +2119,100 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="29"/>
       <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="39"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="41"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="39"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
@@ -2233,40 +2249,54 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
@@ -2291,56 +2321,42 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="L17:L19">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>without holiday</t>
+  </si>
+  <si>
+    <t>vw -d train_df.vw --loss_function logistic -b 29 -l 0.15 -c -k --passes 20 -f model_naive.vw --holdout_period 100</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -474,6 +477,78 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -488,7 +563,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,35 +672,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,7 +720,19 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -1041,7 +1140,7 @@
   <dimension ref="A1:AMK55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,14 +1192,14 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="42"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1547,7 +1646,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1565,28 +1664,26 @@
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="43"/>
+      <c r="L16" s="42"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="45"/>
@@ -1596,26 +1693,21 @@
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="29">
-        <v>0.37432599999999999</v>
-      </c>
-      <c r="J17" s="29">
-        <f>$I$27-I17</f>
-        <v>8.0254999999999632E-3</v>
-      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
       <c r="K17" s="29">
         <v>0.40478320000000001</v>
       </c>
       <c r="L17" s="30">
         <f>$K$27-K17</f>
-        <v>-6.4019333333333317E-3</v>
+        <v>-6.6831749999999857E-3</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="45"/>
@@ -1625,23 +1717,23 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="31">
+      <c r="I18" s="45">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="46">
         <f>$I$27-I18</f>
-        <v>-8.0255000000000187E-3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="29">
         <v>0.39532840000000002</v>
       </c>
       <c r="L18" s="30">
         <f>$K$27-K18</f>
-        <v>3.0528666666666537E-3</v>
+        <v>2.7716249999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="45"/>
@@ -1651,114 +1743,121 @@
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="29">
         <v>0.3950322</v>
       </c>
       <c r="L19" s="30">
         <f>$K$27-K19</f>
-        <v>3.349066666666678E-3</v>
+        <v>3.067825000000024E-3</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+    <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="29">
+        <v>0.39725630000000001</v>
+      </c>
+      <c r="L20" s="30">
+        <f>$K$27-K20</f>
+        <v>8.4372500000001738E-4</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="29"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="29"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="29"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="29"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="29"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
     </row>
@@ -1773,12 +1872,12 @@
       <c r="H27" s="25"/>
       <c r="I27" s="26">
         <f>AVERAGE(I17:I26)</f>
-        <v>0.38235149999999996</v>
+        <v>0.39037699999999997</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="28">
         <f>AVERAGE(K17:K26)</f>
-        <v>0.39838126666666668</v>
+        <v>0.39810002500000002</v>
       </c>
       <c r="L27" s="27"/>
     </row>
@@ -1819,26 +1918,26 @@
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="38" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="38" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="42" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43" t="s">
+      <c r="J30" s="43"/>
+      <c r="K30" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="43"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1847,20 +1946,20 @@
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="40">
-        <v>1</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40">
+      <c r="C31" s="38">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38">
         <v>3</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="39">
         <v>2</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="38">
         <v>2</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29">
@@ -1878,18 +1977,18 @@
       <c r="B32" s="6">
         <v>0.8</v>
       </c>
-      <c r="C32" s="40">
-        <v>1</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="40">
+      <c r="C32" s="38">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38">
         <v>8</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="40">
+      <c r="F32" s="39"/>
+      <c r="G32" s="38">
         <v>5</v>
       </c>
-      <c r="H32" s="41"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
@@ -1900,12 +1999,12 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -1914,12 +2013,12 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -1928,12 +2027,12 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -1942,12 +2041,12 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -1956,12 +2055,12 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -1970,12 +2069,12 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -1984,12 +2083,12 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -2043,50 +2142,50 @@
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="41"/>
+      <c r="E44" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38" t="s">
+      <c r="F44" s="41"/>
+      <c r="G44" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="38" t="s">
+      <c r="H44" s="41"/>
+      <c r="I44" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="43" t="s">
+      <c r="J44" s="41"/>
+      <c r="K44" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="43"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="40" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
       <c r="K45" s="29">
         <v>0.40273130000000001</v>
       </c>
@@ -2096,20 +2195,20 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="40" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
       <c r="K46" s="29">
         <v>0.39624740000000003</v>
       </c>
@@ -2119,100 +2218,100 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
       <c r="K47" s="29"/>
       <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="39"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="41"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="39"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="39"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
@@ -2248,7 +2347,88 @@
       <c r="L55" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="105">
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I46:J46"/>
@@ -2273,105 +2453,28 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <conditionalFormatting sqref="L17:L19">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
+  <conditionalFormatting sqref="L20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -666,28 +666,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,20 +693,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -720,19 +720,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <sz val="11"/>
@@ -1139,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,14 +1180,14 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42"/>
+      <c r="L2" s="51"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1664,37 +1652,37 @@
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="51"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="29">
         <v>0.40478320000000001</v>
       </c>
@@ -1707,20 +1695,20 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="44">
         <f>$I$27-I18</f>
         <v>0</v>
       </c>
@@ -1733,18 +1721,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="29">
         <v>0.3950322</v>
       </c>
@@ -1757,18 +1745,18 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="29">
         <v>0.39725630000000001</v>
       </c>
@@ -1778,86 +1766,86 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
     </row>
@@ -1918,26 +1906,26 @@
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="41"/>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="49" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="41"/>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="42" t="s">
+      <c r="J30" s="50"/>
+      <c r="K30" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="42"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1946,20 +1934,20 @@
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="38">
-        <v>1</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="38">
+      <c r="C31" s="45">
+        <v>1</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="45">
         <v>3</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="46">
         <v>2</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="45">
         <v>2</v>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29">
@@ -1967,7 +1955,7 @@
       </c>
       <c r="L31" s="30">
         <f>$K$41-K31</f>
-        <v>5.3988999999999843E-3</v>
+        <v>4.9265233333333325E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1977,18 +1965,18 @@
       <c r="B32" s="6">
         <v>0.8</v>
       </c>
-      <c r="C32" s="38">
-        <v>1</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="38">
+      <c r="C32" s="45">
+        <v>1</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="45">
         <v>8</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38">
+      <c r="F32" s="46"/>
+      <c r="G32" s="45">
         <v>5</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="31"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
@@ -1997,28 +1985,40 @@
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="A33" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="45">
+        <v>1</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="45">
+        <v>60</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45">
+        <v>30</v>
+      </c>
+      <c r="H33" s="46"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="K33" s="29">
+        <v>0.56183289999999997</v>
+      </c>
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -2027,12 +2027,12 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -2041,12 +2041,12 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -2055,12 +2055,12 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -2069,12 +2069,12 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -2083,12 +2083,12 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -2097,12 +2097,12 @@
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
       <c r="I40" s="32"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -2121,7 +2121,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="28">
         <f>AVERAGE(K31:K40)</f>
-        <v>0.4302339</v>
+        <v>0.47410023333333334</v>
       </c>
       <c r="L41" s="27"/>
     </row>
@@ -2142,50 +2142,50 @@
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="49" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="41"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="49" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="41"/>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="49" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="41"/>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="49" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="41"/>
-      <c r="K44" s="42" t="s">
+      <c r="K44" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="42"/>
+      <c r="L44" s="51"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="38" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="38" t="s">
+      <c r="D45" s="46"/>
+      <c r="E45" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="29">
         <v>0.40273130000000001</v>
       </c>
@@ -2195,20 +2195,20 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="38" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="46"/>
       <c r="K46" s="29">
         <v>0.39624740000000003</v>
       </c>
@@ -2218,114 +2218,114 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="46"/>
       <c r="K47" s="29"/>
       <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="46"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="39"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="46"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="46"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="46"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="39"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="46"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
     </row>
@@ -2348,63 +2348,30 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
@@ -2429,53 +2396,86 @@
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <conditionalFormatting sqref="L17:L19">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\VAZU-CTR-Prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -135,6 +130,9 @@
   </si>
   <si>
     <t>vw -d train_df.vw --loss_function logistic -b 29 -l 0.15 -c -k --passes 20 -f model_naive.vw --holdout_period 100</t>
+  </si>
+  <si>
+    <t>train_df_n</t>
   </si>
 </sst>
 </file>
@@ -264,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -468,7 +466,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +479,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,14 +533,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,8 +551,47 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -563,7 +600,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,6 +703,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -708,12 +769,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1117,7 +1179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,20 +1187,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK55"/>
+  <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="8.85546875" style="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1217,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1180,17 +1242,21 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="58"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="60">
+        <f>MIN(K3:K13,K18:K27,K32:K41,K46:K55)</f>
+        <v>0.39480569999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5">
         <v>0.1</v>
       </c>
@@ -1219,19 +1285,19 @@
         <v>0.39133699999999999</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:J11" si="0">$I$13-I3</f>
-        <v>-4.0777777777778468E-4</v>
+        <f t="shared" ref="J3:J13" si="0">$I$14-I3</f>
+        <v>-1.6263636363633704E-4</v>
       </c>
       <c r="K3" s="8">
         <v>0.3954144</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L11" si="1">$K$13-K3</f>
-        <v>-3.5933333333332262E-4</v>
+        <f t="shared" ref="L3:L11" si="1">$K$14-K3</f>
+        <v>-3.8427000000001987E-4</v>
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -1261,18 +1327,18 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="0"/>
-        <v>-1.0377777777781372E-4</v>
+        <v>1.4136363636363392E-4</v>
       </c>
       <c r="K4" s="8">
         <v>0.39494679999999999</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="1"/>
-        <v>1.0826666666668983E-4</v>
+        <v>8.3329999999992577E-5</v>
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="12">
         <v>0.15</v>
       </c>
@@ -1302,18 +1368,18 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="0"/>
-        <v>6.3322222222222946E-4</v>
+        <v>8.7836363636367709E-4</v>
       </c>
       <c r="K5" s="8">
         <v>0.39536060000000001</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="1"/>
-        <v>-3.0553333333332988E-4</v>
+        <v>-3.3047000000002713E-4</v>
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="5">
         <v>0.15</v>
       </c>
@@ -1343,18 +1409,18 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="0"/>
-        <v>6.462222222222147E-4</v>
+        <v>8.9136363636366234E-4</v>
       </c>
       <c r="K6" s="8">
         <v>0.39530159999999998</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>-2.4653333333329863E-4</v>
+        <v>-2.7146999999999588E-4</v>
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="14">
         <v>0.1</v>
       </c>
@@ -1384,20 +1450,20 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>-2.417777777777852E-4</v>
+        <v>3.3636363636624367E-6</v>
       </c>
       <c r="K7" s="8">
         <v>0.39486979999999999</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>1.8526666666668357E-4</v>
+        <v>1.6032999999998632E-4</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -1427,18 +1493,18 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>-1.7077777777779746E-4</v>
+        <v>7.4363636363650176E-5</v>
       </c>
       <c r="K8" s="8">
         <v>0.39489210000000002</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="1"/>
-        <v>1.6296666666665294E-4</v>
+        <v>1.3802999999995569E-4</v>
       </c>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="5">
         <v>0.1</v>
       </c>
@@ -1468,18 +1534,18 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>-1.5577777777781021E-4</v>
+        <v>8.9363636363637422E-5</v>
       </c>
       <c r="K9" s="8">
         <v>0.39489659999999999</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="1"/>
-        <v>1.5846666666669007E-4</v>
+        <v>1.3352999999999282E-4</v>
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="5">
         <v>0.1</v>
       </c>
@@ -1509,18 +1575,18 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>-2.5777777777791222E-5</v>
+        <v>2.1936363636365641E-4</v>
       </c>
       <c r="K10" s="8">
         <v>0.39491589999999999</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="1"/>
-        <v>1.391666666666902E-4</v>
+        <v>1.1422999999999295E-4</v>
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="5">
         <v>0.1</v>
       </c>
@@ -1550,94 +1616,125 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>-1.737777777777727E-4</v>
+        <v>7.1363636363674932E-5</v>
       </c>
       <c r="K11" s="8">
         <v>0.39489780000000002</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="1"/>
-        <v>1.5726666666665556E-4</v>
+        <v>1.3232999999995831E-4</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="37">
+        <v>1</v>
+      </c>
+      <c r="C12" s="37">
+        <v>4</v>
+      </c>
+      <c r="D12" s="37">
+        <v>4</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="39">
+        <v>100</v>
+      </c>
+      <c r="I12" s="40">
+        <v>0.39228299999999999</v>
+      </c>
+      <c r="J12" s="41">
+        <f t="shared" si="0"/>
+        <v>-1.1086363636363394E-3</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>100</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.39227200000000001</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.0976363636363562E-3</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.39480569999999998</v>
+      </c>
+      <c r="L13" s="24">
+        <f>$K$14-K13</f>
+        <v>2.2442999999999769E-4</v>
+      </c>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
-        <v>100</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.39092922222222221</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.39505506666666668</v>
-      </c>
-      <c r="L13" s="27"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26">
+        <f>AVERAGE(I3:I13)</f>
+        <v>0.39117436363636365</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28">
+        <f>AVERAGE(K3:K13)</f>
+        <v>0.39503012999999998</v>
+      </c>
+      <c r="L14" s="27"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:14">
+      <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1651,242 +1748,243 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" ht="14" customHeight="1">
+      <c r="A17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="51" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="L17" s="58"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1">
+      <c r="A18" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="29">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="29">
         <v>0.40478320000000001</v>
       </c>
-      <c r="L17" s="30">
-        <f>$K$27-K17</f>
+      <c r="L18" s="30">
+        <f>$K$28-K18</f>
         <v>-6.6831749999999857E-3</v>
       </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="29" customHeight="1">
+      <c r="A19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J18" s="44">
-        <f>$I$27-I18</f>
+      <c r="J19" s="52">
+        <f>$I$28-I19</f>
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K19" s="29">
         <v>0.39532840000000002</v>
       </c>
-      <c r="L18" s="30">
-        <f>$K$27-K18</f>
+      <c r="L19" s="30">
+        <f>$K$28-K19</f>
         <v>2.7716249999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="20" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="29">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="29">
         <v>0.3950322</v>
       </c>
-      <c r="L19" s="30">
-        <f>$K$27-K19</f>
+      <c r="L20" s="30">
+        <f>$K$28-K20</f>
         <v>3.067825000000024E-3</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="21" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="29">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="29">
         <v>0.39725630000000001</v>
       </c>
-      <c r="L20" s="30">
-        <f>$K$27-K20</f>
+      <c r="L21" s="30">
+        <f>$K$28-K21</f>
         <v>8.4372500000001738E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26">
-        <f>AVERAGE(I17:I26)</f>
+    <row r="26" spans="1:13">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26">
+        <f>AVERAGE(I18:I27)</f>
         <v>0.39037699999999997</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28">
-        <f>AVERAGE(K17:K26)</f>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28">
+        <f>AVERAGE(K18:K27)</f>
         <v>0.39810002500000002</v>
       </c>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1899,457 +1997,472 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:13" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C31" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="49" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="49" t="s">
+      <c r="F31" s="49"/>
+      <c r="G31" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="50" t="s">
+      <c r="H31" s="49"/>
+      <c r="I31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51" t="s">
+      <c r="J31" s="59"/>
+      <c r="K31" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="51"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="45">
-        <v>1</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="45">
+      <c r="L31" s="58"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
+        <v>1</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="53">
         <v>3</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F32" s="54">
         <v>2</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G32" s="53">
         <v>2</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29">
-        <v>0.42483500000000002</v>
-      </c>
-      <c r="L31" s="30">
-        <f>$K$41-K31</f>
-        <v>4.9265233333333325E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="C32" s="45">
-        <v>1</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="45">
-        <v>8</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="45">
-        <v>5</v>
-      </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
-        <v>0.43563279999999999</v>
-      </c>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="B33" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="C33" s="45">
-        <v>1</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="45">
-        <v>60</v>
-      </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45">
-        <v>30</v>
-      </c>
-      <c r="H33" s="46"/>
+        <v>0.42483500000000002</v>
+      </c>
+      <c r="L32" s="30">
+        <f>$K$42-K32</f>
+        <v>4.9265233333333325E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C33" s="53">
+        <v>1</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="53">
+        <v>8</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="53">
+        <v>5</v>
+      </c>
+      <c r="H33" s="54"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29">
-        <v>0.56183289999999997</v>
+        <v>0.43563279999999999</v>
       </c>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+    <row r="34" spans="1:12">
+      <c r="A34" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="53">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="53">
+        <v>60</v>
+      </c>
+      <c r="F34" s="54"/>
+      <c r="G34" s="53">
+        <v>30</v>
+      </c>
+      <c r="H34" s="54"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
+      <c r="K34" s="29">
+        <v>0.56183289999999997</v>
+      </c>
       <c r="L34" s="30"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+    <row r="35" spans="1:12">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
+    <row r="36" spans="1:12">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="54"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28">
-        <f>AVERAGE(K31:K40)</f>
+    <row r="40" spans="1:12">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="28">
+        <f>AVERAGE(K32:K41)</f>
         <v>0.47410023333333334</v>
       </c>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="L42" s="27"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B45" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C45" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="49" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="49" t="s">
+      <c r="F45" s="49"/>
+      <c r="G45" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="49" t="s">
+      <c r="H45" s="49"/>
+      <c r="I45" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="41"/>
-      <c r="K44" s="51" t="s">
+      <c r="J45" s="49"/>
+      <c r="K45" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="51"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="L45" s="58"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="45" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="45" t="s">
+      <c r="D46" s="54"/>
+      <c r="E46" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="29">
+      <c r="F46" s="54"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="29">
         <v>0.40273130000000001</v>
       </c>
-      <c r="L45" s="30">
-        <f>$K$55-K45</f>
+      <c r="L46" s="30">
+        <f>$K$56-K46</f>
         <v>-3.2419499999999934E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+    <row r="47" spans="1:12">
+      <c r="A47" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="29">
+      <c r="D47" s="54"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="29">
         <v>0.39624740000000003</v>
       </c>
-      <c r="L46" s="30">
-        <f>$K$55-K46</f>
+      <c r="L47" s="30">
+        <f>$K$56-K47</f>
         <v>3.2419499999999934E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
+    <row r="48" spans="1:12">
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="46"/>
+    <row r="49" spans="1:12">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="46"/>
+    <row r="50" spans="1:12">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="46"/>
+    <row r="51" spans="1:12">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="46"/>
+    <row r="52" spans="1:12">
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="46"/>
+    <row r="53" spans="1:12">
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28">
-        <f>AVERAGE(K45:K54)</f>
+    <row r="54" spans="1:12">
+      <c r="A54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" thickBot="1">
+      <c r="A55" s="55"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28">
+        <f>AVERAGE(K46:K55)</f>
         <v>0.39948935000000002</v>
       </c>
-      <c r="L55" s="27"/>
+      <c r="L56" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
@@ -2359,75 +2472,75 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="I55:J55"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -2438,12 +2551,12 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A19:J19"/>
@@ -2453,28 +2566,29 @@
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
-  <conditionalFormatting sqref="L17:L19">
+  <conditionalFormatting sqref="L18:L20">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
+  <conditionalFormatting sqref="L32">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
+  <conditionalFormatting sqref="L46">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
+  <conditionalFormatting sqref="L47">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="L21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:AMK56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1292,8 +1292,8 @@
         <v>0.3954144</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L11" si="1">$K$14-K3</f>
-        <v>-3.8427000000001987E-4</v>
+        <f t="shared" ref="L3:L12" si="1">$K$14-K3</f>
+        <v>-3.3096636363638687E-4</v>
       </c>
       <c r="M3"/>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="L4" s="9">
         <f t="shared" si="1"/>
-        <v>8.3329999999992577E-5</v>
+        <v>1.3663363636362558E-4</v>
       </c>
       <c r="M4"/>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" si="1"/>
-        <v>-3.3047000000002713E-4</v>
+        <v>-2.7716636363639413E-4</v>
       </c>
       <c r="M5"/>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>-2.7146999999999588E-4</v>
+        <v>-2.1816636363636288E-4</v>
       </c>
       <c r="M6"/>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>1.6032999999998632E-4</v>
+        <v>2.1363363636361932E-4</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="L8" s="9">
         <f t="shared" si="1"/>
-        <v>1.3802999999995569E-4</v>
+        <v>1.9133363636358869E-4</v>
       </c>
       <c r="M8"/>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="L9" s="9">
         <f t="shared" si="1"/>
-        <v>1.3352999999999282E-4</v>
+        <v>1.8683363636362582E-4</v>
       </c>
       <c r="M9"/>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="L10" s="9">
         <f t="shared" si="1"/>
-        <v>1.1422999999999295E-4</v>
+        <v>1.6753363636362595E-4</v>
       </c>
       <c r="M10"/>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="L11" s="9">
         <f t="shared" si="1"/>
-        <v>1.3232999999995831E-4</v>
+        <v>1.8563363636359131E-4</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
@@ -1661,8 +1661,13 @@
         <f t="shared" si="0"/>
         <v>-1.1086363636363394E-3</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="41">
+        <v>0.39561647</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="1"/>
+        <v>-5.3303636363638551E-4</v>
+      </c>
       <c r="M12" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1709,7 @@
       </c>
       <c r="L13" s="24">
         <f>$K$14-K13</f>
-        <v>2.2442999999999769E-4</v>
+        <v>2.7773363636363069E-4</v>
       </c>
       <c r="M13"/>
     </row>
@@ -1728,7 +1733,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="28">
         <f>AVERAGE(K3:K13)</f>
-        <v>0.39503012999999998</v>
+        <v>0.39508343363636361</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14"/>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30640" windowHeight="18620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -133,6 +134,210 @@
   </si>
   <si>
     <t>train_df_n</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>47686351 </t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>240 </t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>banner_pos</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>1882 </t>
+  </si>
+  <si>
+    <t>site_domain</t>
+  </si>
+  <si>
+    <t>4304 </t>
+  </si>
+  <si>
+    <t>site_category</t>
+  </si>
+  <si>
+    <t>5 </t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>5276 </t>
+  </si>
+  <si>
+    <t>app_domain</t>
+  </si>
+  <si>
+    <t>300 </t>
+  </si>
+  <si>
+    <t>app_category</t>
+  </si>
+  <si>
+    <t>16 </t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>2709814 </t>
+  </si>
+  <si>
+    <t>device_ip</t>
+  </si>
+  <si>
+    <t>5709217 </t>
+  </si>
+  <si>
+    <t>device_os</t>
+  </si>
+  <si>
+    <t>device_make</t>
+  </si>
+  <si>
+    <t>38 </t>
+  </si>
+  <si>
+    <t>device_model</t>
+  </si>
+  <si>
+    <t>2843 </t>
+  </si>
+  <si>
+    <t>device_type</t>
+  </si>
+  <si>
+    <t>device_conn_type</t>
+  </si>
+  <si>
+    <t>device_geo_country</t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>1520 </t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>227 </t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>26 </t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>8 </t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unique Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unique Train </t>
+  </si>
+  <si>
+    <t>Key: name of the key</t>
+  </si>
+  <si>
+    <t>#Test: number of unique values in test</t>
+  </si>
+  <si>
+    <t>Unique Test: values present in test but not in train</t>
+  </si>
+  <si>
+    <t>#Train: number unique values in train</t>
+  </si>
+  <si>
+    <t>Unique Train: values present in train but not in test</t>
+  </si>
+  <si>
+    <t>d41d8cd9</t>
+  </si>
+  <si>
+    <t>null value</t>
+  </si>
+  <si>
+    <t>1) site_id  34.48%</t>
+  </si>
+  <si>
+    <t>2) site_domain 36.40%</t>
+  </si>
+  <si>
+    <t>3) site_category 40.46%</t>
+  </si>
+  <si>
+    <t>4) app_id 65.52%</t>
+  </si>
+  <si>
+    <t>5) app_domain 69.77%</t>
+  </si>
+  <si>
+    <t>6) app_category 66.54%</t>
+  </si>
+  <si>
+    <t>7) device_id 79.86%</t>
+  </si>
+  <si>
+    <t>8) device_model 1.05%</t>
+  </si>
+  <si>
+    <t>In those columns, replace d41d8cd9 with NULL. You'll see the ad was either served on a site or an app.</t>
+  </si>
+  <si>
+    <t>NULLs for site_id, site_domain, site_category: 85f751fd, c4e18dd6, 50e219e0</t>
+  </si>
+  <si>
+    <t>NULLs for app_id, app_domain, app_category: ecad2386, 7801e8d9, 07d7df22</t>
+  </si>
+  <si>
+    <t>mobile apps vs. sites</t>
   </si>
 </sst>
 </file>
@@ -595,12 +800,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,6 +934,31 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -742,9 +974,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -754,32 +983,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -1179,7 +1391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1189,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1242,16 +1454,16 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="58"/>
+      <c r="L2" s="51"/>
       <c r="M2"/>
-      <c r="N2" s="60">
+      <c r="N2" s="44">
         <f>MIN(K3:K13,K18:K27,K32:K41,K46:K55)</f>
         <v>0.39480569999999998</v>
       </c>
@@ -1771,37 +1983,37 @@
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="14" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="58" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="58"/>
+      <c r="L17" s="51"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="29">
         <v>0.40478320000000001</v>
       </c>
@@ -1814,20 +2026,20 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="29" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="60">
         <f>$I$28-I19</f>
         <v>0</v>
       </c>
@@ -1840,18 +2052,18 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="29">
         <v>0.3950322</v>
       </c>
@@ -1864,18 +2076,18 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="29">
         <v>0.39725630000000001</v>
       </c>
@@ -1885,86 +2097,86 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="33"/>
       <c r="L27" s="34"/>
     </row>
@@ -2025,26 +2237,26 @@
       <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="57" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="57" t="s">
+      <c r="F31" s="50"/>
+      <c r="G31" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="59" t="s">
+      <c r="H31" s="50"/>
+      <c r="I31" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="58" t="s">
+      <c r="J31" s="52"/>
+      <c r="K31" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="58"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5">
@@ -2053,20 +2265,20 @@
       <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="47">
         <v>1</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="53">
+      <c r="D32" s="48"/>
+      <c r="E32" s="47">
         <v>3</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="48">
         <v>2</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="47">
         <v>2</v>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
@@ -2084,18 +2296,18 @@
       <c r="B33" s="6">
         <v>0.8</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="47">
         <v>1</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="53">
+      <c r="D33" s="48"/>
+      <c r="E33" s="47">
         <v>8</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="53">
+      <c r="F33" s="48"/>
+      <c r="G33" s="47">
         <v>5</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29">
@@ -2110,18 +2322,18 @@
       <c r="B34" s="13">
         <v>0.3</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="53">
+      <c r="D34" s="48"/>
+      <c r="E34" s="47">
         <v>60</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="53">
+      <c r="F34" s="48"/>
+      <c r="G34" s="47">
         <v>30</v>
       </c>
-      <c r="H34" s="54"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29">
@@ -2132,12 +2344,12 @@
     <row r="35" spans="1:12">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -2146,12 +2358,12 @@
     <row r="36" spans="1:12">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -2160,12 +2372,12 @@
     <row r="37" spans="1:12">
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -2174,12 +2386,12 @@
     <row r="38" spans="1:12">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -2188,12 +2400,12 @@
     <row r="39" spans="1:12">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -2202,12 +2414,12 @@
     <row r="40" spans="1:12">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
       <c r="I40" s="31"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -2216,12 +2428,12 @@
     <row r="41" spans="1:12" ht="15" thickBot="1">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="32"/>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
@@ -2261,50 +2473,50 @@
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="57" t="s">
+      <c r="D45" s="50"/>
+      <c r="E45" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="57" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="57" t="s">
+      <c r="H45" s="50"/>
+      <c r="I45" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="49"/>
-      <c r="K45" s="58" t="s">
+      <c r="J45" s="50"/>
+      <c r="K45" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="58"/>
+      <c r="L45" s="51"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="53" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="53" t="s">
+      <c r="D46" s="48"/>
+      <c r="E46" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="29">
         <v>0.40273130000000001</v>
       </c>
@@ -2314,20 +2526,20 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="53" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="29">
         <v>0.39624740000000003</v>
       </c>
@@ -2337,114 +2549,114 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="48"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="48"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
       <c r="K54" s="29"/>
       <c r="L54" s="30"/>
     </row>
     <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="56"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="46"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
     </row>
@@ -2467,6 +2679,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
@@ -2491,87 +2784,6 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <conditionalFormatting sqref="L18:L20">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
@@ -2606,4 +2818,555 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="61">
+        <v>4769401</v>
+      </c>
+      <c r="C2" s="61">
+        <v>4769401</v>
+      </c>
+      <c r="D2" s="61">
+        <v>47686351</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="61">
+        <v>24</v>
+      </c>
+      <c r="C3" s="61">
+        <v>24</v>
+      </c>
+      <c r="D3" s="61">
+        <v>240</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="61">
+        <v>7</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <v>7</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="61">
+        <v>7</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61">
+        <v>7</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="61">
+        <v>2919</v>
+      </c>
+      <c r="C6" s="61">
+        <v>86</v>
+      </c>
+      <c r="D6" s="61">
+        <v>4715</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="61">
+        <v>3681</v>
+      </c>
+      <c r="C7" s="61">
+        <v>252</v>
+      </c>
+      <c r="D7" s="61">
+        <v>7733</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="61">
+        <v>21</v>
+      </c>
+      <c r="C8" s="61">
+        <v>0</v>
+      </c>
+      <c r="D8" s="61">
+        <v>26</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="61">
+        <v>2904</v>
+      </c>
+      <c r="C9" s="61">
+        <v>239</v>
+      </c>
+      <c r="D9" s="61">
+        <v>7941</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="61">
+        <v>139</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6</v>
+      </c>
+      <c r="D10" s="61">
+        <v>433</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="61">
+        <v>22</v>
+      </c>
+      <c r="C11" s="61">
+        <v>0</v>
+      </c>
+      <c r="D11" s="61">
+        <v>38</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="61">
+        <v>435864</v>
+      </c>
+      <c r="C12" s="61">
+        <v>358114</v>
+      </c>
+      <c r="D12" s="61">
+        <v>2787564</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="61">
+        <v>978837</v>
+      </c>
+      <c r="C13" s="61">
+        <v>606975</v>
+      </c>
+      <c r="D13" s="61">
+        <v>6081079</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="61">
+        <v>10</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0</v>
+      </c>
+      <c r="D14" s="61">
+        <v>15</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="61">
+        <v>246</v>
+      </c>
+      <c r="C15" s="61">
+        <v>1</v>
+      </c>
+      <c r="D15" s="61">
+        <v>283</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="61">
+        <v>5530</v>
+      </c>
+      <c r="C16" s="61">
+        <v>53</v>
+      </c>
+      <c r="D16" s="61">
+        <v>8320</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="61">
+        <v>5</v>
+      </c>
+      <c r="C17" s="61">
+        <v>1</v>
+      </c>
+      <c r="D17" s="61">
+        <v>4</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="61">
+        <v>4</v>
+      </c>
+      <c r="C18" s="61">
+        <v>0</v>
+      </c>
+      <c r="D18" s="61">
+        <v>4</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="61">
+        <v>227</v>
+      </c>
+      <c r="C19" s="61">
+        <v>1</v>
+      </c>
+      <c r="D19" s="61">
+        <v>232</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="61">
+        <v>1480</v>
+      </c>
+      <c r="C20" s="61">
+        <v>408</v>
+      </c>
+      <c r="D20" s="61">
+        <v>2592</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="61">
+        <v>8</v>
+      </c>
+      <c r="C21" s="61">
+        <v>0</v>
+      </c>
+      <c r="D21" s="61">
+        <v>8</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="61">
+        <v>9</v>
+      </c>
+      <c r="C22" s="61">
+        <v>0</v>
+      </c>
+      <c r="D22" s="61">
+        <v>9</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="61">
+        <v>294</v>
+      </c>
+      <c r="C23" s="61">
+        <v>64</v>
+      </c>
+      <c r="D23" s="61">
+        <v>457</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="61">
+        <v>4</v>
+      </c>
+      <c r="C24" s="61">
+        <v>0</v>
+      </c>
+      <c r="D24" s="61">
+        <v>4</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="61">
+        <v>39</v>
+      </c>
+      <c r="C25" s="61">
+        <v>4</v>
+      </c>
+      <c r="D25" s="61">
+        <v>61</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="61">
+        <v>163</v>
+      </c>
+      <c r="C26" s="61">
+        <v>0</v>
+      </c>
+      <c r="D26" s="61">
+        <v>171</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="61">
+        <v>31</v>
+      </c>
+      <c r="C27" s="61">
+        <v>2</v>
+      </c>
+      <c r="D27" s="61">
+        <v>53</v>
+      </c>
+      <c r="E27" s="61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30640" windowHeight="18620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30640" windowHeight="18620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>mobile apps vs. sites</t>
+  </si>
+  <si>
+    <t>vw -d train_df_null.vw --loss_function logistic -b 28 -l 0.1 -c -k --passes 3 -f model_naive.vw --holdout_period 100</t>
   </si>
 </sst>
 </file>
@@ -800,8 +803,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -935,29 +940,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -974,6 +958,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -983,18 +970,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -1391,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1401,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1454,18 +1485,18 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="51" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="60"/>
       <c r="M2"/>
       <c r="N2" s="44">
         <f>MIN(K3:K13,K18:K27,K32:K41,K46:K55)</f>
-        <v>0.39480569999999998</v>
+        <v>0.39461180000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1983,63 +2014,63 @@
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="14" customHeight="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="51"/>
+      <c r="L17" s="60"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="29">
         <v>0.40478320000000001</v>
       </c>
       <c r="L18" s="30">
         <f>$K$28-K18</f>
-        <v>-6.6831749999999857E-3</v>
+        <v>-7.3808199999999546E-3</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29" customHeight="1">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="54">
         <f>$I$28-I19</f>
         <v>0</v>
       </c>
@@ -2048,135 +2079,142 @@
       </c>
       <c r="L19" s="30">
         <f>$K$28-K19</f>
-        <v>2.7716249999999998E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A20" s="58" t="s">
+        <v>2.0739800000000308E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="29">
         <v>0.3950322</v>
       </c>
       <c r="L20" s="30">
         <f>$K$28-K20</f>
-        <v>3.067825000000024E-3</v>
+        <v>2.370180000000055E-3</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="29">
         <v>0.39725630000000001</v>
       </c>
       <c r="L21" s="30">
         <f>$K$28-K21</f>
-        <v>8.4372500000001738E-4</v>
+        <v>1.4608000000004839E-4</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="A22" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="29">
+        <v>0.39461180000000001</v>
+      </c>
+      <c r="L22" s="30">
+        <f>$K$28-K22</f>
+        <v>2.7905800000000425E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="33"/>
       <c r="L27" s="34"/>
     </row>
@@ -2196,7 +2234,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="28">
         <f>AVERAGE(K18:K27)</f>
-        <v>0.39810002500000002</v>
+        <v>0.39740238000000006</v>
       </c>
       <c r="L28" s="27"/>
     </row>
@@ -2237,26 +2275,26 @@
       <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="51"/>
+      <c r="G31" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="52" t="s">
+      <c r="H31" s="51"/>
+      <c r="I31" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="51" t="s">
+      <c r="J31" s="61"/>
+      <c r="K31" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="51"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5">
@@ -2265,20 +2303,20 @@
       <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="55">
         <v>1</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="47">
+      <c r="D32" s="56"/>
+      <c r="E32" s="55">
         <v>3</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="56">
         <v>2</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="55">
         <v>2</v>
       </c>
-      <c r="H32" s="48"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
@@ -2296,18 +2334,18 @@
       <c r="B33" s="6">
         <v>0.8</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="55">
         <v>1</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="47">
+      <c r="D33" s="56"/>
+      <c r="E33" s="55">
         <v>8</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="47">
+      <c r="F33" s="56"/>
+      <c r="G33" s="55">
         <v>5</v>
       </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29">
@@ -2322,18 +2360,18 @@
       <c r="B34" s="13">
         <v>0.3</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="55">
         <v>1</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="47">
+      <c r="D34" s="56"/>
+      <c r="E34" s="55">
         <v>60</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="47">
+      <c r="F34" s="56"/>
+      <c r="G34" s="55">
         <v>30</v>
       </c>
-      <c r="H34" s="48"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29">
@@ -2344,12 +2382,12 @@
     <row r="35" spans="1:12">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -2358,12 +2396,12 @@
     <row r="36" spans="1:12">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -2372,12 +2410,12 @@
     <row r="37" spans="1:12">
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -2386,12 +2424,12 @@
     <row r="38" spans="1:12">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -2400,12 +2438,12 @@
     <row r="39" spans="1:12">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -2414,12 +2452,12 @@
     <row r="40" spans="1:12">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="56"/>
       <c r="I40" s="31"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -2428,12 +2466,12 @@
     <row r="41" spans="1:12" ht="15" thickBot="1">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="32"/>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
@@ -2473,50 +2511,50 @@
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="49" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="49" t="s">
+      <c r="F45" s="51"/>
+      <c r="G45" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="49" t="s">
+      <c r="H45" s="51"/>
+      <c r="I45" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51" t="s">
+      <c r="J45" s="51"/>
+      <c r="K45" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="51"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="47" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="47" t="s">
+      <c r="D46" s="56"/>
+      <c r="E46" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="48"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="56"/>
       <c r="K46" s="29">
         <v>0.40273130000000001</v>
       </c>
@@ -2526,20 +2564,20 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="56"/>
+      <c r="C47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="48"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="29">
         <v>0.39624740000000003</v>
       </c>
@@ -2549,114 +2587,114 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="56"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="48"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="48"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="56"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="48"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="56"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="48"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="56"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="48"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="56"/>
       <c r="K54" s="29"/>
       <c r="L54" s="30"/>
     </row>
     <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
     </row>
@@ -2679,39 +2717,54 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="G47:H47"/>
@@ -2736,77 +2789,67 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <conditionalFormatting sqref="L18:L20">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2824,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2861,16 +2904,16 @@
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="45">
         <v>4769401</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="45">
         <v>4769401</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="45">
         <v>47686351</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="45" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2881,16 +2924,16 @@
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="45">
         <v>24</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="45">
         <v>24</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="45">
         <v>240</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="45" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2901,16 +2944,16 @@
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="45">
         <v>7</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="45">
         <v>0</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="45">
         <v>7</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2921,16 +2964,16 @@
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="45">
         <v>7</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="45">
         <v>7</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="45" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2941,16 +2984,16 @@
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="45">
         <v>2919</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="45">
         <v>86</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="45">
         <v>4715</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2961,16 +3004,16 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="45">
         <v>3681</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="45">
         <v>252</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="45">
         <v>7733</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="45" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2981,16 +3024,16 @@
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="45">
         <v>21</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="45">
         <v>0</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="45">
         <v>26</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="45" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3001,16 +3044,16 @@
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="45">
         <v>2904</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="45">
         <v>239</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="45">
         <v>7941</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="45" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3021,16 +3064,16 @@
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="45">
         <v>139</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="45">
         <v>6</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="45">
         <v>433</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="45" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3038,16 +3081,16 @@
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="45">
         <v>22</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="45">
         <v>0</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="45">
         <v>38</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="45" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -3058,16 +3101,16 @@
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="45">
         <v>435864</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="45">
         <v>358114</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="45">
         <v>2787564</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="45" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3075,16 +3118,16 @@
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="45">
         <v>978837</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="45">
         <v>606975</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="45">
         <v>6081079</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="45" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3095,16 +3138,16 @@
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="45">
         <v>10</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="45">
         <v>0</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="45">
         <v>15</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="45" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3115,16 +3158,16 @@
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="45">
         <v>246</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="45">
         <v>1</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="45">
         <v>283</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="45" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3132,16 +3175,16 @@
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="45">
         <v>5530</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="45">
         <v>53</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="45">
         <v>8320</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="45" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3152,16 +3195,16 @@
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="45">
         <v>5</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="45">
         <v>1</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="45">
         <v>4</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3169,16 +3212,16 @@
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="45">
         <v>4</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="45">
         <v>0</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="45">
         <v>4</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3186,16 +3229,16 @@
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="45">
         <v>227</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="45">
         <v>1</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="45">
         <v>232</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="45" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3203,16 +3246,16 @@
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="45">
         <v>1480</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="45">
         <v>408</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="45">
         <v>2592</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3220,16 +3263,16 @@
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="45">
         <v>8</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="45">
         <v>0</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="45">
         <v>8</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3237,16 +3280,16 @@
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="45">
         <v>9</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="45">
         <v>0</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="45">
         <v>9</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3254,16 +3297,16 @@
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="45">
         <v>294</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="45">
         <v>64</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="45">
         <v>457</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3271,16 +3314,16 @@
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="45">
         <v>4</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="45">
         <v>0</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="45">
         <v>4</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3288,16 +3331,16 @@
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="45">
         <v>39</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="45">
         <v>4</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="45">
         <v>61</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="45" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3305,16 +3348,16 @@
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="45">
         <v>163</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="45">
         <v>0</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="45">
         <v>171</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3322,16 +3365,16 @@
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="45">
         <v>31</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="45">
         <v>2</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="45">
         <v>53</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="45">
         <v>24</v>
       </c>
     </row>

--- a/model_tune.xlsx
+++ b/model_tune.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\VAZU-CTR-Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30640" windowHeight="18620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30645" windowHeight="18615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>Python - Logistic Regression</t>
   </si>
@@ -341,6 +346,9 @@
   </si>
   <si>
     <t>vw -d train_df_null.vw --loss_function logistic -b 28 -l 0.1 -c -k --passes 3 -f model_naive.vw --holdout_period 100</t>
+  </si>
+  <si>
+    <t>vw -d train_df_site_app.vw --loss_function logistic -b 28 -l 0.1 -c -k --passes 3 -f model_naive.vw --holdout_period 100</t>
   </si>
 </sst>
 </file>
@@ -943,6 +951,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -958,9 +990,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -969,27 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1001,7 +1009,19 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -1422,7 +1442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1433,17 +1453,17 @@
   <dimension ref="A1:AMK56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:J23"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1480,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1485,21 +1505,21 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="60" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="60"/>
+      <c r="L2" s="52"/>
       <c r="M2"/>
       <c r="N2" s="44">
         <f>MIN(K3:K13,K18:K27,K32:K41,K46:K55)</f>
-        <v>0.39461180000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.39393030000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.1</v>
       </c>
@@ -1540,7 +1560,7 @@
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -1581,7 +1601,7 @@
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0.15</v>
       </c>
@@ -1622,7 +1642,7 @@
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.15</v>
       </c>
@@ -1663,7 +1683,7 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.1</v>
       </c>
@@ -1706,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -1747,7 +1767,7 @@
       </c>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.1</v>
       </c>
@@ -1788,7 +1808,7 @@
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.1</v>
       </c>
@@ -1829,7 +1849,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.1</v>
       </c>
@@ -1872,7 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>0.1</v>
       </c>
@@ -1915,7 +1935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>0.1</v>
       </c>
@@ -1956,7 +1976,7 @@
       </c>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>0.1</v>
       </c>
@@ -1981,7 +2001,7 @@
       <c r="L14" s="27"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1996,7 +2016,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2013,64 +2033,64 @@
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="14" customHeight="1">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="51"/>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="60"/>
+      <c r="L17" s="52"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="29">
         <v>0.40478320000000001</v>
       </c>
       <c r="L18" s="30">
         <f>$K$28-K18</f>
-        <v>-7.3808199999999546E-3</v>
+        <v>-7.9594999999999527E-3</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60">
         <v>0.39037699999999997</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="61">
         <f>$I$28-I19</f>
         <v>0</v>
       </c>
@@ -2079,146 +2099,153 @@
       </c>
       <c r="L19" s="30">
         <f>$K$28-K19</f>
-        <v>2.0739800000000308E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="52" t="s">
+        <v>1.4953000000000327E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="29">
         <v>0.3950322</v>
       </c>
       <c r="L20" s="30">
         <f>$K$28-K20</f>
-        <v>2.370180000000055E-3</v>
+        <v>1.7915000000000569E-3</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
       <c r="K21" s="29">
         <v>0.39725630000000001</v>
       </c>
       <c r="L21" s="30">
         <f>$K$28-K21</f>
-        <v>1.4608000000004839E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="52" t="s">
+        <v>-4.3259999999994969E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="29">
         <v>0.39461180000000001</v>
       </c>
       <c r="L22" s="30">
         <f>$K$28-K22</f>
-        <v>2.7905800000000425E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+        <v>2.2119000000000444E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="29">
+        <v>0.39393030000000001</v>
+      </c>
+      <c r="L23" s="30">
+        <f>$K$28-K23</f>
+        <v>2.8934000000000459E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="33"/>
       <c r="L27" s="34"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2234,11 +2261,11 @@
       <c r="J28" s="27"/>
       <c r="K28" s="28">
         <f>AVERAGE(K18:K27)</f>
-        <v>0.39740238000000006</v>
+        <v>0.39682370000000006</v>
       </c>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2252,7 +2279,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -2268,55 +2295,55 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="51"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="50" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="51"/>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="51"/>
-      <c r="I31" s="61" t="s">
+      <c r="I31" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="60" t="s">
+      <c r="J31" s="53"/>
+      <c r="K31" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="60"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="48">
         <v>1</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="55">
+      <c r="D32" s="49"/>
+      <c r="E32" s="48">
         <v>3</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="49">
         <v>2</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="48">
         <v>2</v>
       </c>
-      <c r="H32" s="56"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
@@ -2327,25 +2354,25 @@
         <v>4.9265233333333325E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>0.1</v>
       </c>
       <c r="B33" s="6">
         <v>0.8</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="48">
         <v>1</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="55">
+      <c r="D33" s="49"/>
+      <c r="E33" s="48">
         <v>8</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="55">
+      <c r="F33" s="49"/>
+      <c r="G33" s="48">
         <v>5</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29">
@@ -2353,25 +2380,25 @@
       </c>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>0.3</v>
       </c>
       <c r="B34" s="13">
         <v>0.3</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="48">
         <v>1</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="55">
+      <c r="D34" s="49"/>
+      <c r="E34" s="48">
         <v>60</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="55">
+      <c r="F34" s="49"/>
+      <c r="G34" s="48">
         <v>30</v>
       </c>
-      <c r="H34" s="56"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="31"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29">
@@ -2379,105 +2406,105 @@
       </c>
       <c r="L34" s="30"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="31"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="31"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="31"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="31"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="31"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
       <c r="I41" s="32"/>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="34"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2494,7 +2521,7 @@
       </c>
       <c r="L42" s="27"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
@@ -2510,51 +2537,51 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="59" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="50" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="51"/>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="51"/>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="50" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="51"/>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="50" t="s">
         <v>31</v>
       </c>
       <c r="J45" s="51"/>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="60"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="55" t="s">
+      <c r="L45" s="52"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="55" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="55" t="s">
+      <c r="D46" s="49"/>
+      <c r="E46" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="56"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
       <c r="K46" s="29">
         <v>0.40273130000000001</v>
       </c>
@@ -2563,21 +2590,21 @@
         <v>-3.2419499999999934E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="55" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="56"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="49"/>
       <c r="K47" s="29">
         <v>0.39624740000000003</v>
       </c>
@@ -2586,119 +2613,119 @@
         <v>3.2419499999999934E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="56"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="56"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="56"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="56"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="56"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="55"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="56"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="49"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="56"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="49"/>
       <c r="K54" s="29"/>
       <c r="L54" s="30"/>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -2717,6 +2744,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
@@ -2741,114 +2849,38 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <conditionalFormatting sqref="L18:L20">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
+  <conditionalFormatting sqref="L21">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2871,13 +2903,13 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2900,7 +2932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2920,7 +2952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +2972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2960,7 +2992,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2980,7 +3012,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -3000,7 +3032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3020,7 +3052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -3040,7 +3072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -3060,7 +3092,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3077,7 +3109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3097,7 +3129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -3114,7 +3146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -3134,7 +3166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -3154,7 +3186,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -3171,7 +3203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -3191,7 +3223,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -3208,7 +3240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -3225,7 +3257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -3242,7 +3274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -3259,7 +3291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -3276,7 +3308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -3293,7 +3325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -3310,7 +3342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -3327,7 +3359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -3344,7 +3376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -3361,7 +3393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -3378,27 +3410,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
